--- a/biology/Biologie cellulaire et moléculaire/SCN10A/SCN10A.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/SCN10A/SCN10A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SCN10A (« Sodium channel de type 10 avec sous-unité alpha » ou Nav1.8 est une protéine de type canal sodique dont le gène est SCN10A situé sur le chromosome 3 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La protéine comporte 1957 acides aminés[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine comporte 1957 acides aminés.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un canal sodique voltage dépendant et insensible à la tétrodotoxine[5].
-Il est exprimé par les neurones sensitifs issus des ganglions nerveux dorsaux[5] et intervient dans la transmission de la douleur[6]. Son blocage expérimental chez le rat permet l'amélioration des symptômes douloureux[7].
-Il est exprimé également dans les neurones intracardiaques[8] ainsi que dans le tissu cardiaque où il intervient dans la conduction atrio-ventriculaire[9] ou intraventriculaire[10]. Certains variants du gène SCN10A favorisent le risque de survenue d'un trouble du rythme cardiaque[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un canal sodique voltage dépendant et insensible à la tétrodotoxine.
+Il est exprimé par les neurones sensitifs issus des ganglions nerveux dorsaux et intervient dans la transmission de la douleur. Son blocage expérimental chez le rat permet l'amélioration des symptômes douloureux.
+Il est exprimé également dans les neurones intracardiaques ainsi que dans le tissu cardiaque où il intervient dans la conduction atrio-ventriculaire ou intraventriculaire. Certains variants du gène SCN10A favorisent le risque de survenue d'un trouble du rythme cardiaque.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le blocage médicamenteux du canal sodique entraîne une diminution des douleurs post-opératoires[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le blocage médicamenteux du canal sodique entraîne une diminution des douleurs post-opératoires.
 </t>
         </is>
       </c>
